--- a/biology/Botanique/Parc_national_urbain_d'Heinola/Parc_national_urbain_d'Heinola.xlsx
+++ b/biology/Botanique/Parc_national_urbain_d'Heinola/Parc_national_urbain_d'Heinola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_national_urbain_d%27Heinola</t>
+          <t>Parc_national_urbain_d'Heinola</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national urbain d'Heinola (finnois : Heinolan kansallinen kaupunkipuisto) est un parc national urbain créé en mai 2002 à  Heinola en Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_national_urbain_d%27Heinola</t>
+          <t>Parc_national_urbain_d'Heinola</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Le parc urbain national d'Heinola</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national de la ville d'Heinola est fondé le 6 mai 2002 par arrêté du ministère de l'Environnement.
 Il a une superficie de 839 ha, dont 159 ha de plans d'eau.
 Il couvre le centre-ville, l'esker d'Heinola, le paysage culturel de l'ancien village et les archipels.
 La partie parc national urbain au centre-ville du parc d'Heinola comprend la perspective d'Heinola, le parc Rantapuisto, le séminaire d'Heinola, parc Harjupuisto ainsi que le quartier de l'église d'Heinola et le vieux cimetière.
-Au nord-ouest du Jyrängönvirta le parc comprend au nord-ouest l'archipel du lac Ruotsalainen et à l'extrémité sud-est de l'archipel du lac Konnivesi[1].
+Au nord-ouest du Jyrängönvirta le parc comprend au nord-ouest l'archipel du lac Ruotsalainen et à l'extrémité sud-est de l'archipel du lac Konnivesi.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_national_urbain_d%27Heinola</t>
+          <t>Parc_national_urbain_d'Heinola</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Les parcs urbains nationaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'idée des parcs urbains nationaux est venue du parc national urbain royal créé en 1995 à Stockholm[2],[3],[1],[4],[5],[6],[7],[8].
-En 2014, il y six parcs urbains nationaux en Finlande[9],[10].
-À la fin de 2020, leur nombre est passé à dix : Forssa, Hanko, Heinola, Hämeenlinna, Kokkola, Kotka, Kuopio, Pori, Porvoo et Turku[6],[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'idée des parcs urbains nationaux est venue du parc national urbain royal créé en 1995 à Stockholm.
+En 2014, il y six parcs urbains nationaux en Finlande,.
+À la fin de 2020, leur nombre est passé à dix : Forssa, Hanko, Heinola, Hämeenlinna, Kokkola, Kotka, Kuopio, Pori, Porvoo et Turku,.
 </t>
         </is>
       </c>
